--- a/pred_ohlcv/54_21/2019-10-26 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 WTC ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>20201.8108</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>19218.64696554508</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>33414.40996554508</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>32435.12336554508</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>32424.60866554508</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>34429.57856554508</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>34429.57856554508</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>33699.15946554508</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>33654.47116554508</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>33308.75116554508</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>33308.75116554508</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>30567.09116554508</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>41821.20276554508</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>42368.21486554508</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>36898.40936554508</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>37599.49636554508</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>22766.09326554507</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>22826.09326554507</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>22706.09326554507</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>24590.64416554507</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>24858.44476554507</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>24386.79946554507</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>24451.03746554507</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>24451.03746554507</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24395.23746554507</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>26239.18266554507</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>26119.18266554507</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>26184.03350860603</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>25213.89680860603</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>25984.27420860603</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>29596.76304626837</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>29496.29924626837</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>30210.04034626837</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>34441.33448584945</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>34144.10118584945</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>36240.16805908889</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>32685.9844792909</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>31209.1361792909</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>31209.1361792909</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>31439.7351792909</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>31282.5946792909</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>30361.8880792909</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>31231.5738792909</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>31233.5386792909</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>28797.28417929089</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>27611.06317929089</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>30871.06317929089</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>31549.15897929089</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>31353.59197929089</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>30257.78027929089</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>30467.37027929089</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>18295.06957929089</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>17976.14937929089</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>17738.66627929089</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>25073.64777929089</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>23815.57347929089</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>23175.01047929089</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>23986.08667929089</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>23186.08667929089</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>23830.34547929089</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>22995.99857929089</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>22679.68607929089</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>22313.27707929089</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>22315.74157929089</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>22277.54157929089</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>18198.53027929089</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>8603.426679290887</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>8603.426679290887</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>8855.609079290887</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-9606.673120709109</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-8982.179820709109</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-8788.038820709109</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-8788.038820709109</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-8741.895620709109</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-9763.820920709109</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-9523.536720709109</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-10340.61632070911</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-11383.55182070911</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-11383.55182070911</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-11172.65182070911</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-13719.76502070911</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-13676.77512070911</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-13110.96862070911</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-13618.80872070911</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 WTC ohlcv.xlsx
@@ -1900,7 +1900,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>33414.40996554508</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>32435.12336554508</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>32424.60866554508</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>34429.57856554508</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>34429.57856554508</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>33699.15946554508</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>33654.47116554508</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>33308.75116554508</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>33308.75116554508</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>30567.09116554508</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>41821.20276554508</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>42368.21486554508</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>36898.40936554508</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>37599.49636554508</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>22766.09326554507</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>22826.09326554507</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>22706.09326554507</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>24590.64416554507</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>24858.44476554507</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>24386.79946554507</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>24451.03746554507</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>24451.03746554507</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24395.23746554507</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>26239.18266554507</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>26119.18266554507</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>26184.03350860603</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>25213.89680860603</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>25984.27420860603</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>29596.76304626837</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>29496.29924626837</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>30210.04034626837</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>34441.33448584945</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>34144.10118584945</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>36240.16805908889</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>32370.20785908888</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>31209.1361792909</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>31439.7351792909</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>31282.5946792909</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>30361.8880792909</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>31231.5738792909</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>31233.5386792909</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>28797.28417929089</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>27611.06317929089</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>30871.06317929089</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>31549.15897929089</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>31353.59197929089</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>30257.78027929089</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>30467.37027929089</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>18295.06957929089</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>17976.14937929089</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>17738.66627929089</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>25073.64777929089</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>23815.57347929089</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>23175.01047929089</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>23986.08667929089</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>22995.99857929089</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>22679.68607929089</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>22313.27707929089</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>22315.74157929089</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>22277.54157929089</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>18198.53027929089</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-9523.536720709109</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-11383.55182070911</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-11172.65182070911</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-13719.76502070911</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-13110.96862070911</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-13618.80872070911</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
